--- a/DD_CommuteCost.xlsx
+++ b/DD_CommuteCost.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="816" windowWidth="9480" windowHeight="4116" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1656" windowWidth="9480" windowHeight="4116"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="12">
   <si>
     <t>wk 1</t>
   </si>
@@ -53,6 +53,15 @@
   </si>
   <si>
     <t>fr</t>
+  </si>
+  <si>
+    <t>wk 1  123</t>
+  </si>
+  <si>
+    <t>wk 2 6..10</t>
+  </si>
+  <si>
+    <t>wk 3  20..23</t>
   </si>
 </sst>
 </file>
@@ -370,15 +379,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:Q36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="9" max="9" width="3.5546875" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>4</v>
       </c>
@@ -394,121 +407,197 @@
       <c r="F1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="C2">
-        <v>10.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="D2">
-        <v>10.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="E2">
-        <v>10.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="F2">
-        <v>10.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="H2">
         <f>SUM(B2:F2)</f>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2">
+        <v>11.2</v>
+      </c>
+      <c r="N2">
+        <v>15</v>
+      </c>
+      <c r="O2">
+        <v>11.2</v>
+      </c>
+      <c r="Q2">
+        <f>SUM(K2:O2)</f>
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="C3">
-        <v>10.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="D3">
-        <v>10.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="E3">
-        <v>10.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="F3">
-        <v>10.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="H3">
         <f t="shared" ref="H3:H5" si="0">SUM(B3:F3)</f>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>11.2</v>
+      </c>
+      <c r="L3">
+        <v>15</v>
+      </c>
+      <c r="M3">
+        <v>11.2</v>
+      </c>
+      <c r="N3">
+        <v>15</v>
+      </c>
+      <c r="O3">
+        <v>11.2</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q4" si="1">SUM(K3:O3)</f>
+        <v>63.599999999999994</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="C4">
-        <v>10.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="D4">
-        <v>10.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="E4">
-        <v>10.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="F4">
-        <v>10.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="H4">
         <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4">
+        <v>11.2</v>
+      </c>
+      <c r="L4">
+        <v>15</v>
+      </c>
+      <c r="M4">
+        <v>11.2</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="1"/>
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="C5">
-        <v>10.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="D5">
-        <v>10.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="E5">
-        <v>10.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="F5">
-        <v>10.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="J5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="H7">
         <f>SUM(H2:H5)</f>
-        <v>204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>224</v>
+      </c>
+      <c r="Q7">
+        <f>SUM(Q2:Q5)</f>
+        <v>138.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="H8">
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="H9">
         <f>H7-H8</f>
-        <v>149</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>4</v>
       </c>
@@ -525,49 +614,49 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
       <c r="B15">
-        <v>10.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="C15">
         <v>15</v>
       </c>
       <c r="D15">
-        <v>10.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="E15">
-        <v>10.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="F15">
         <v>10.199999999999999</v>
       </c>
       <c r="H15">
         <f>SUM(B15:F15)</f>
-        <v>55.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>1</v>
       </c>
       <c r="B16">
-        <v>10.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16">
-        <v>10.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="H16">
-        <f t="shared" ref="H16:H18" si="1">SUM(B16:F16)</f>
-        <v>50.4</v>
+        <f t="shared" ref="H16:H18" si="2">SUM(B16:F16)</f>
+        <v>52.4</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -575,13 +664,13 @@
         <v>2</v>
       </c>
       <c r="B17">
-        <v>10.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="C17">
-        <v>10.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="D17">
-        <v>10.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="E17">
         <v>15</v>
@@ -590,8 +679,8 @@
         <v>10.199999999999999</v>
       </c>
       <c r="H17">
-        <f t="shared" si="1"/>
-        <v>55.8</v>
+        <f t="shared" si="2"/>
+        <v>58.8</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -599,26 +688,26 @@
         <v>3</v>
       </c>
       <c r="B18">
-        <v>10.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="C18">
-        <v>10.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="D18">
-        <v>10.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="E18">
-        <v>10.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="H18">
-        <f t="shared" si="1"/>
-        <v>40.799999999999997</v>
+        <f t="shared" si="2"/>
+        <v>44.8</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H20">
         <f>SUM(H15:H18)</f>
-        <v>202.8</v>
+        <v>214.8</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -629,7 +718,7 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H23">
         <f>H20-H21</f>
-        <v>147.80000000000001</v>
+        <v>159.80000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -654,23 +743,23 @@
         <v>0</v>
       </c>
       <c r="B29">
-        <v>10.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="C29">
         <v>15</v>
       </c>
       <c r="D29">
-        <v>10.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="E29">
         <v>15</v>
       </c>
       <c r="F29">
-        <v>10.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="H29">
         <f>SUM(B29:F29)</f>
-        <v>60.599999999999994</v>
+        <v>63.599999999999994</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -678,23 +767,23 @@
         <v>1</v>
       </c>
       <c r="B30">
-        <v>10.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="C30">
         <v>15</v>
       </c>
       <c r="D30">
-        <v>10.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="E30">
         <v>15</v>
       </c>
       <c r="F30">
-        <v>10.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="H30">
-        <f t="shared" ref="H30:H32" si="2">SUM(B30:F30)</f>
-        <v>60.599999999999994</v>
+        <f t="shared" ref="H30:H32" si="3">SUM(B30:F30)</f>
+        <v>63.599999999999994</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -702,23 +791,23 @@
         <v>2</v>
       </c>
       <c r="B31">
-        <v>10.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="C31">
         <v>15</v>
       </c>
       <c r="D31">
-        <v>10.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="E31">
         <v>15</v>
       </c>
       <c r="F31">
-        <v>10.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="H31">
-        <f t="shared" si="2"/>
-        <v>60.599999999999994</v>
+        <f t="shared" si="3"/>
+        <v>63.599999999999994</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -726,29 +815,29 @@
         <v>3</v>
       </c>
       <c r="B32">
-        <v>10.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="C32">
         <v>15</v>
       </c>
       <c r="D32">
-        <v>10.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="E32">
         <v>15</v>
       </c>
       <c r="F32">
-        <v>10.199999999999999</v>
+        <v>11.2</v>
       </c>
       <c r="H32">
-        <f t="shared" si="2"/>
-        <v>60.599999999999994</v>
+        <f t="shared" si="3"/>
+        <v>63.599999999999994</v>
       </c>
     </row>
     <row r="34" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H34">
         <f>SUM(H29:H32)</f>
-        <v>242.39999999999998</v>
+        <v>254.39999999999998</v>
       </c>
     </row>
     <row r="35" spans="8:8" x14ac:dyDescent="0.3">
@@ -759,7 +848,7 @@
     <row r="36" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H36">
         <f>H34-H35</f>
-        <v>187.39999999999998</v>
+        <v>199.39999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -771,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
